--- a/Calculation/Calculation_Data/Nachbearbeitet/LR_R290_Data.xlsx
+++ b/Calculation/Calculation_Data/Nachbearbeitet/LR_R290_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsmoschner/Desktop/Bachelor/03_Code/Calculation/Calculation_Data/Nachbearbeitet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{545E1919-4D61-A74E-BDA1-9A4746BEA57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53C4DAC-9626-DA4B-BAA8-93A2BBB668BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="26620" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>COE</t>
   </si>
@@ -34,25 +34,13 @@
     <t>25</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>55</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>65</t>
@@ -137,7 +125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,7 +448,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -491,8 +479,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="1">
+        <v>30</v>
       </c>
       <c r="B3">
         <v>167.15076862999999</v>
@@ -506,7 +494,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>201.97887596000001</v>
@@ -519,8 +507,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" s="1">
+        <v>40</v>
       </c>
       <c r="B5">
         <v>293.75668886</v>
@@ -534,7 +522,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>410.69802571999998</v>
@@ -547,8 +535,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
+      <c r="A7" s="1">
+        <v>50</v>
       </c>
       <c r="B7">
         <v>404.43266584999998</v>
@@ -562,7 +550,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>491.95370394999998</v>
@@ -575,8 +563,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
+      <c r="A9" s="1">
+        <v>60</v>
       </c>
       <c r="B9">
         <v>524.02738988999999</v>
@@ -590,7 +578,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>-908.24712820000002</v>

--- a/Calculation/Calculation_Data/Nachbearbeitet/LR_R290_Data.xlsx
+++ b/Calculation/Calculation_Data/Nachbearbeitet/LR_R290_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsmoschner/Desktop/Bachelor/03_Code/Calculation/Calculation_Data/Nachbearbeitet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53C4DAC-9626-DA4B-BAA8-93A2BBB668BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92398FD-7E81-6848-9950-A762DBC60893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="26620" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>COE</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>65</t>
+  </si>
+  <si>
+    <t>PI</t>
   </si>
 </sst>
 </file>
@@ -447,13 +450,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
